--- a/medicine/Enfance/Sandra_Scoppettone/Sandra_Scoppettone.xlsx
+++ b/medicine/Enfance/Sandra_Scoppettone/Sandra_Scoppettone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra Scoppettone est une écrivaine américaine, auteure de roman policier.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née dans le New Jersey en 1936, elle abandonne ses études pour se consacrer tôt à l'écriture. Elle écrit des romans pour adolescents et des romans policiers sous le pseudonyme de Jack Early. La Mort dans l'art et Playing Murder ont été nommés pour le prix Edgar-Allan-Poe.
 Sandra Scoppettone est aussi connue pour sa série ayant pour héroïne la détective privée lesbienne Lauren Laurano. Ses romans se déroulent dans les villes où elle a vécu, New York et Long Island.
-Elle a fait son coming out en 1970[1].
+Elle a fait son coming out en 1970.
 </t>
         </is>
       </c>
@@ -546,26 +560,140 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Sandra Scoppettone
-Série Lauren Laurano
-Everything You Have Is Mine (1991) Traduction française : Tout ce qui est à toi..., Fleuve noir, 1995.
+          <t>Romans signés Sandra Scoppettone</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Lauren Laurano</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Everything You Have Is Mine (1991) Traduction française : Tout ce qui est à toi..., Fleuve noir, 1995.
 I'll Be Leaving You Always (1993) Traduction française : Je te quitterai toujours, Fleuve noir, 1996.
 My Sweet Untraceable You (1994) Traduction française : Toi ma douce introuvable, Fleuve noir, 1998.
 Let's Face The Music and Die (1996) Traduction française : Toute la mort devant nous, Fleuve noir, 1997.
-Gonna Take a Homicidal Journey (1999) Traduction française : Long Island Blues, Fleuve noir, 1999.
-Autres romans
-Some Unknown Person (1977) Inspiré de la vie et de la mort de Starr Faithfull en 1931[2],[3]. Traduction française par Nathalie Mège : Vie et mort de Miss Faithfull, Fleuve noir, 2002.
+Gonna Take a Homicidal Journey (1999) Traduction française : Long Island Blues, Fleuve noir, 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sandra_Scoppettone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandra_Scoppettone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Sandra Scoppettone</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Some Unknown Person (1977) Inspiré de la vie et de la mort de Starr Faithfull en 1931,. Traduction française par Nathalie Mège : Vie et mort de Miss Faithfull, Fleuve noir, 2002.
 Such Nice People (1980)
 Innocent Bystanders (1983)
 Beautiful Rage (2004) Traduction française : De peur et de larmes, Fleuve noir, 2003.
 This Dame for Hire (2005)
-Too Darn Hot (2006)
-Romans signés Jack Early
-A Creative Kind of Killer (1984) Traduction française : La Mort dans l'art, Série noire no 2033, Fleuve noir, 2003.
+Too Darn Hot (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sandra_Scoppettone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandra_Scoppettone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Jack Early</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A Creative Kind of Killer (1984) Traduction française : La Mort dans l'art, Série noire no 2033, Fleuve noir, 2003.
 Razzamatazz (1985) Traduction française : Petite Musique de mort, Fleuve noir, 2001.
-Donato &amp; Daughter (1988) Traduction française : Donato père et fille, Fleuve noir, 2000. Adapté en téléfilm en 1993 sous le titre de Donato père et fille par Rod Holcomb.
-Romans pour adolescents
-Trying Hard to Hear You (1974)
+Donato &amp; Daughter (1988) Traduction française : Donato père et fille, Fleuve noir, 2000. Adapté en téléfilm en 1993 sous le titre de Donato père et fille par Rod Holcomb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sandra_Scoppettone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandra_Scoppettone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour adolescents</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Trying Hard to Hear You (1974)
 The Late Great Me (1976)
 Happy Endings Are All Alike (1978)
 Long Time Between Kisses (1982)
@@ -573,31 +701,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Sandra_Scoppettone</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sandra_Scoppettone</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2013 : Prix Alice B Readers</t>
         </is>
